--- a/data/mali-idps-by-region-sept12-jul14.xlsx
+++ b/data/mali-idps-by-region-sept12-jul14.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="-140" yWindow="1080" windowWidth="27520" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Mali</t>
   </si>
@@ -71,75 +76,6 @@
   </si>
   <si>
     <t>Bamako</t>
-  </si>
-  <si>
-    <t>Sept2012</t>
-  </si>
-  <si>
-    <t>Oct2012</t>
-  </si>
-  <si>
-    <t>Nov2012</t>
-  </si>
-  <si>
-    <t>Dec2012</t>
-  </si>
-  <si>
-    <t>Jan2013</t>
-  </si>
-  <si>
-    <t>Feb2013</t>
-  </si>
-  <si>
-    <t>March2013</t>
-  </si>
-  <si>
-    <t>Apr2013</t>
-  </si>
-  <si>
-    <t>May2013</t>
-  </si>
-  <si>
-    <t>June2013</t>
-  </si>
-  <si>
-    <t>July2013</t>
-  </si>
-  <si>
-    <t>Aug2013</t>
-  </si>
-  <si>
-    <t>Sept2013</t>
-  </si>
-  <si>
-    <t>Oct2013</t>
-  </si>
-  <si>
-    <t>Nov2013</t>
-  </si>
-  <si>
-    <t>Dec2013</t>
-  </si>
-  <si>
-    <t>Jan2014</t>
-  </si>
-  <si>
-    <t>Feb2014</t>
-  </si>
-  <si>
-    <t>March2014</t>
-  </si>
-  <si>
-    <t>Apr2014</t>
-  </si>
-  <si>
-    <t>May2014</t>
-  </si>
-  <si>
-    <t>June2014</t>
-  </si>
-  <si>
-    <t>July2014</t>
   </si>
   <si>
     <t>Country</t>
@@ -164,6 +100,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,129 +440,112 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>41</v>
+      <c r="G1" s="2">
+        <v>41153</v>
+      </c>
+      <c r="H1" s="2">
+        <v>41183</v>
+      </c>
+      <c r="I1" s="2">
+        <v>41214</v>
+      </c>
+      <c r="J1" s="2">
+        <v>41244</v>
+      </c>
+      <c r="K1" s="2">
+        <v>41275</v>
+      </c>
+      <c r="L1" s="2">
+        <v>41306</v>
+      </c>
+      <c r="M1" s="2">
+        <v>41334</v>
+      </c>
+      <c r="N1" s="2">
+        <v>41365</v>
+      </c>
+      <c r="O1" s="2">
+        <v>41395</v>
+      </c>
+      <c r="P1" s="2">
+        <v>41426</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>41456</v>
+      </c>
+      <c r="R1" s="2">
+        <v>41487</v>
+      </c>
+      <c r="S1" s="2">
+        <v>41518</v>
+      </c>
+      <c r="T1" s="2">
+        <v>41548</v>
+      </c>
+      <c r="U1" s="2">
+        <v>41579</v>
+      </c>
+      <c r="V1" s="2">
+        <v>41609</v>
+      </c>
+      <c r="W1" s="2">
+        <v>41640</v>
+      </c>
+      <c r="X1" s="2">
+        <v>41671</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>41699</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>41730</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>41760</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>41791</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>41821</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +634,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +723,7 @@
         <v>16042</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +812,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +901,7 @@
         <v>8387</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +990,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1079,7 @@
         <v>15282</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1168,7 @@
         <v>10809</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1257,7 @@
         <v>28650</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,6 +1348,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>